--- a/time_summary.xlsx
+++ b/time_summary.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="300" windowWidth="25040" windowHeight="16900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="18">
   <si>
     <t>model</t>
   </si>
   <si>
-    <t>5_trees_of_1000_tips</t>
-  </si>
-  <si>
     <t>sampling</t>
   </si>
   <si>
@@ -39,52 +39,43 @@
     <t>50% uniform</t>
   </si>
   <si>
-    <t>10_trees_of_500_tips</t>
-  </si>
-  <si>
     <t>factor of increase</t>
   </si>
   <si>
-    <t>sums</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>50_trees_of_100_tips</t>
-  </si>
-  <si>
-    <t>100_trees_of_50_tips</t>
-  </si>
-  <si>
-    <t>dimension</t>
-  </si>
-  <si>
-    <t>balanced_random_short_tips</t>
-  </si>
-  <si>
-    <t>balanced_random_long_tips</t>
-  </si>
-  <si>
     <t>QJ time per tree</t>
   </si>
   <si>
     <t>BS time per tree</t>
   </si>
   <si>
-    <t>bd_constant</t>
-  </si>
-  <si>
     <t>†</t>
   </si>
   <si>
-    <t>pectinate_random</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>bd_random</t>
+    <t>n trees</t>
+  </si>
+  <si>
+    <t>n tips per tree</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>balanced/random, long tips</t>
+  </si>
+  <si>
+    <t>balanced/random, short tips</t>
+  </si>
+  <si>
+    <t>bd/constant</t>
+  </si>
+  <si>
+    <t>bd/random</t>
+  </si>
+  <si>
+    <t>pectinate/random</t>
   </si>
 </sst>
 </file>
@@ -92,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -143,8 +134,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -297,9 +338,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -374,6 +415,31 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -448,6 +514,31 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -777,684 +868,813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7589.6460000000006</v>
+      </c>
+      <c r="F2" s="2">
+        <v>98317.673999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2/E2/2</f>
+        <v>6.4770922122059442</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>17924.597999999998</v>
+      </c>
+      <c r="F3" s="2">
+        <v>116925.06599999999</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G13" si="0">F3/E3/2</f>
+        <v>3.2615812639145383</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5666.1399999999994</v>
+      </c>
+      <c r="F4" s="2">
+        <v>66716.613333333327</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8873071732549258</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3058.7130000000002</v>
+      </c>
+      <c r="F5" s="2">
+        <v>36955.107000000004</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0409569318860585</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>498.13359999999994</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2938.8966000000014</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9499080166445326</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>231.10732673267333</v>
+      </c>
+      <c r="F7" s="2">
+        <v>831.8120792079211</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7996229089052107</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>5666.1399999999994</v>
-      </c>
-      <c r="E2" s="2">
-        <v>66716.613333333327</v>
-      </c>
-      <c r="F2" s="2">
-        <f>E2/D2</f>
-        <v>11.774614346509852</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="E8" s="2">
+        <v>8029.65</v>
+      </c>
+      <c r="F8" s="2">
+        <v>153850.97599999997</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5801794598768293</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>7589.6460000000006</v>
-      </c>
-      <c r="E3" s="2">
-        <v>98317.673999999999</v>
-      </c>
-      <c r="F3" s="2">
-        <f>E3/D3</f>
-        <v>12.954184424411888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="E9" s="2">
+        <v>18635.82</v>
+      </c>
+      <c r="F9" s="2">
+        <v>134379.516</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6054092602311036</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
-        <v>17924.597999999998</v>
-      </c>
-      <c r="E4" s="2">
-        <v>116925.06599999999</v>
-      </c>
-      <c r="F4" s="2">
-        <f>E4/D4</f>
-        <v>6.5231625278290766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6395.74</v>
+      </c>
+      <c r="F10" s="2">
+        <v>97863.443999999989</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6506740424094781</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4942.4459999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>58628.512000000002</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9311231726153411</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>559.13179999999988</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2663.8390000000009</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3821208165945857</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>442.98639999999995</v>
+      </c>
+      <c r="F13" s="2">
+        <v>987.31880000000035</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1143895162470003</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
-        <v>3058.7130000000002</v>
-      </c>
-      <c r="E5" s="2">
-        <v>36955.107000000004</v>
-      </c>
-      <c r="F5" s="2">
-        <f>E5/D5</f>
-        <v>12.081913863772117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4158.1779999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>37042.851999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16:G25" si="1">F16/E16/2</f>
+        <v>4.4542167266528754</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2484.2845454545454</v>
+      </c>
+      <c r="F17" s="2">
+        <v>16342.158181818184</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2891075645338539</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>539.54600000000005</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2276.3314000000009</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>2.109487791587743</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>176.05393939393934</v>
+      </c>
+      <c r="F19" s="2">
+        <v>581.68303030303036</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>1.652002313340609</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <v>498.13359999999994</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2938.8966000000014</v>
-      </c>
-      <c r="F6" s="2">
-        <f>E6/D6</f>
-        <v>5.8998160332890652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E20" s="2">
+        <v>7316.38</v>
+      </c>
+      <c r="F20" s="2">
+        <v>171927.31200000001</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>11.749479387347295</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>16560.864000000001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>153281.13</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6278119909685866</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6707</v>
+      </c>
+      <c r="F22" s="2">
+        <v>82010.12000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1137706873415842</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3124.2770000000005</v>
+      </c>
+      <c r="F23" s="2">
+        <v>26493.684999999998</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2399705595886656</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>604.32725490196094</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1540.1368627450977</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2742573251929137</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>494.09585858585865</v>
+      </c>
+      <c r="F25" s="2">
+        <v>639.30323232323246</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64694251248428669</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
-        <v>231.10732673267333</v>
-      </c>
-      <c r="E7" s="2">
-        <v>831.8120792079211</v>
-      </c>
-      <c r="F7" s="2">
-        <f>E7/D7</f>
-        <v>3.5992458178104214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6395.74</v>
-      </c>
-      <c r="E8" s="2">
-        <v>97863.443999999989</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:F34" si="0">E8/D8</f>
-        <v>15.301348084818956</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
-        <v>8029.65</v>
-      </c>
-      <c r="E9" s="2">
-        <v>153850.97599999997</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>19.160358919753659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
-        <v>18635.82</v>
-      </c>
-      <c r="E10" s="2">
-        <v>134379.516</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>7.2108185204622073</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4942.4459999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>58628.512000000002</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>11.862246345230682</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>559.13179999999988</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2663.8390000000009</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>4.7642416331891715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>442.98639999999995</v>
-      </c>
-      <c r="E13" s="2">
-        <v>987.31880000000035</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2287790324940007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2653.7690000000002</v>
+      </c>
+      <c r="F29" s="2">
+        <v>26223.034999999996</v>
+      </c>
+      <c r="G29" s="2">
+        <f>F29/E29/2</f>
+        <v>4.9407154503651212</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4158.1779999999999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>37042.851999999999</v>
-      </c>
-      <c r="F14" s="2">
-        <f>E14/D14</f>
-        <v>8.9084334533057508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>814.03199999999993</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3395.5949999999998</v>
+      </c>
+      <c r="G30" s="2">
+        <f>F30/E30/2</f>
+        <v>2.0856643227784657</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2484.2845454545454</v>
-      </c>
-      <c r="E17" s="2">
-        <v>16342.158181818184</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>6.5782151290677078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>539.54600000000005</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2276.3314000000009</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>4.218975583175486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>176.05393939393934</v>
-      </c>
-      <c r="E19" s="2">
-        <v>581.68303030303036</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>3.304004626681218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2653.7690000000002</v>
-      </c>
-      <c r="E23" s="2">
-        <v>26223.034999999996</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>9.8814309007302423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>814.03199999999993</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3395.5949999999998</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1713286455569314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
         <v>403.52574257425761</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F31" s="2">
         <v>987.41504950495062</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4469691653519341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="D32" s="2"/>
+      <c r="G31" s="2">
+        <f>F31/E31/2</f>
+        <v>1.223484582675967</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="D33" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="3:7">
       <c r="E33" s="2"/>
-      <c r="F33" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1">
-        <f>SUM(C32:C36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="e">
-        <f>AVERAGE(C32:C36)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1">
+    <sortState ref="A2:J31">
+      <sortCondition ref="A1:A31"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
